--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2317\Projects\success-corp.co.jp\blb\temp\git-conflict-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377FDAFE-DC57-47CF-88C7-CD83BB35FBF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA79B28-8409-47D1-A6FD-5A8FEA99EB55}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2505" yWindow="1140" windowWidth="23565" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+  <si>
+    <t>alice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,14 +353,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2317\Projects\success-corp.co.jp\blb\temp\git-conflict-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377FDAFE-DC57-47CF-88C7-CD83BB35FBF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39256AE9-91F3-472C-90E1-F8909B9DDB07}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2505" yWindow="1140" windowWidth="23565" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+  <si>
+    <t>bob</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,14 +353,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
